--- a/documents/画面一覧・遷移図.xlsx
+++ b/documents/画面一覧・遷移図.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="23715" windowHeight="14355"/>
+    <workbookView xWindow="120" yWindow="90" windowWidth="23715" windowHeight="14355" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="画面一覧" sheetId="1" r:id="rId1"/>
@@ -16,12 +16,12 @@
     <sheet name="画面遷移図 (サイト)" sheetId="9" r:id="rId7"/>
     <sheet name="画面遷移図(サイトマップ)" sheetId="10" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="191">
   <si>
     <t>トップページ</t>
     <phoneticPr fontId="1"/>
@@ -1230,13 +1230,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>フォローしているユーザーの一覧</t>
-    <rPh sb="13" eb="15">
-      <t>イチラン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>自分をフォローしているユーザーの一覧</t>
     <rPh sb="0" eb="2">
       <t>ジブン</t>
@@ -1316,9 +1309,247 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>表示</t>
+    <t>対象ユーザーの行動ログ</t>
     <rPh sb="0" eb="2">
-      <t>ヒョウジ</t>
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>コウドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対象ユーザーの自己紹介など</t>
+    <rPh sb="0" eb="2">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジコ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ショウカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対象ユーザーがフォローしているユーザーの一覧</t>
+    <rPh sb="0" eb="2">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自分がフォローしているユーザーの一覧</t>
+    <rPh sb="0" eb="2">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対象ユーザーをフォローしているユーザーの一覧</t>
+    <rPh sb="0" eb="2">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対象ユーザーがお気に入りに登録しているゲーム</t>
+    <rPh sb="0" eb="2">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対象ユーザーが投稿したレビュー一覧</t>
+    <rPh sb="0" eb="2">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対象ユーザーが登録したサイトの一覧</t>
+    <rPh sb="0" eb="2">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対象ユーザーがお気に入りに登録しているサイトの一覧</t>
+    <rPh sb="0" eb="2">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザーの設定メニュー</t>
+    <rPh sb="5" eb="7">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自己紹介等のプロフィール編集</t>
+    <rPh sb="0" eb="2">
+      <t>ジコ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ショウカイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>外部サイトの認証設定</t>
+    <rPh sb="0" eb="2">
+      <t>ガイブ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メール認証の設定</t>
+    <rPh sb="3" eb="5">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メール認証の設定完了画面</t>
+    <rPh sb="3" eb="5">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メールアドレス変更</t>
+    <rPh sb="7" eb="9">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メールアドレス変更完了画面</t>
+    <rPh sb="7" eb="9">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワード変更入力画面</t>
+    <rPh sb="5" eb="7">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイコンの初期設定画面</t>
+    <rPh sb="5" eb="7">
+      <t>ショキ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録済みアイコンの設定画面</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面No.</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1326,8 +1557,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1489,7 +1720,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1553,6 +1784,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1742,7 +1976,7 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>11207</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>44824</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1172116" cy="367408"/>
@@ -1796,7 +2030,7 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>11207</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>112059</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1031051" cy="367408"/>
@@ -2194,7 +2428,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2214,7 +2448,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2452,7 +2686,7 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>33617</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>156882</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="748923" cy="367408"/>
@@ -2506,7 +2740,7 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>112059</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>156882</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1031051" cy="367408"/>
@@ -2560,7 +2794,7 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>168089</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>145676</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1031051" cy="367408"/>
@@ -2614,7 +2848,7 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>112060</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>67237</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1031051" cy="367408"/>
@@ -2668,7 +2902,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>336172</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1172116" cy="367408"/>
@@ -2722,7 +2956,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>280147</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>67235</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1172116" cy="367408"/>
@@ -2830,7 +3064,7 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>33618</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>123264</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="889987" cy="367408"/>
@@ -3666,7 +3900,7 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>33617</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>4410</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3718,7 +3952,7 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>33618</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>138879</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3770,7 +4004,7 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>11207</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>127674</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3822,7 +4056,7 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>11207</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>60440</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3868,13 +4102,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>408079</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>15615</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>336172</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>156881</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3919,13 +4153,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>408080</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>20025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>112061</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>82852</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3970,13 +4204,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>408078</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>20026</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>280146</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>82851</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4021,13 +4255,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>98981</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>4410</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>112059</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>17110</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4074,13 +4308,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>627586</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>20026</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>627587</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>67237</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4126,13 +4360,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>85145</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>20026</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>627585</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>82851</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4176,13 +4410,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>141170</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>15616</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>627585</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>156882</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4226,13 +4460,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>459552</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>161292</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>168090</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>4410</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4351,7 +4585,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -4371,7 +4605,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -4438,13 +4672,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>240046</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>138879</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>649942</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>138880</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4490,13 +4724,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>358699</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>127674</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>89647</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>140374</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4542,13 +4776,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>499764</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>49234</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>156882</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>60440</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4863,7 +5097,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>649942</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>123265</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1561197" cy="367408"/>
@@ -4949,7 +5183,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>89647</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>112059</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1561197" cy="367408"/>
@@ -5035,7 +5269,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>156882</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>33618</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1702261" cy="367408"/>
@@ -5117,6 +5351,318 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>396873</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>53642</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>537883</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>94055</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="66" name="カギ線コネクタ 65"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="17" idx="2"/>
+          <a:endCxn id="70" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="2755583" y="5124432"/>
+          <a:ext cx="208501" cy="824569"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>537883</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>78440</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="889987" cy="367408"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="70" name="テキスト ボックス 69"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3272118" y="5457264"/>
+          <a:ext cx="889987" cy="367408"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="メイリオ" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ゲーム詳細</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>549088</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>56030</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="889987" cy="367408"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="71" name="テキスト ボックス 70"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3283323" y="6107206"/>
+          <a:ext cx="889987" cy="367408"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="メイリオ" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>サイト詳細</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>537883</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>145676</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="748923" cy="367408"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="74" name="テキスト ボックス 73"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3272118" y="6701117"/>
+          <a:ext cx="748923" cy="367408"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="メイリオ" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>レビュー</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>396874</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>53642</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>549089</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>71644</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="76" name="カギ線コネクタ 75"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="17" idx="2"/>
+          <a:endCxn id="71" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="2436215" y="5443801"/>
+          <a:ext cx="858443" cy="835774"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>396872</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>53643</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>537882</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>161292</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="77" name="カギ線コネクタ 76"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="17" idx="2"/>
+          <a:endCxn id="74" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="2133656" y="5746359"/>
+          <a:ext cx="1452354" cy="824569"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6537,7 +7083,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -6557,7 +7103,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -6592,7 +7138,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -6612,7 +7158,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -6843,7 +7389,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>347383</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>44824</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="466794" cy="367408"/>
@@ -6954,7 +7500,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>347383</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>60439</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -9838,13 +10384,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>130618</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>60439</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>481853</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>60440</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -9890,7 +10436,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>481853</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>44823</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="607859" cy="367408"/>
@@ -13309,11 +13855,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>78442</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1561197" cy="367408"/>
+    <xdr:ext cx="1702261" cy="367408"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="99" name="テキスト ボックス 98"/>
@@ -13321,8 +13867,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5546913" y="2185147"/>
-          <a:ext cx="1561197" cy="367408"/>
+          <a:off x="5468471" y="2185147"/>
+          <a:ext cx="1702261" cy="367408"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13374,7 +13920,7 @@
               <a:latin typeface="メイリオ" pitchFamily="50" charset="-128"/>
               <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>サイト</a:t>
+            <a:t>レビュー</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
@@ -13395,13 +13941,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>170125</xdr:colOff>
+      <xdr:colOff>167573</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>31232</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>175483</xdr:colOff>
+      <xdr:colOff>170125</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -13414,9 +13960,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="6172361" y="2029996"/>
-          <a:ext cx="304944" cy="5358"/>
+        <a:xfrm rot="5400000">
+          <a:off x="6168406" y="2031399"/>
+          <a:ext cx="304944" cy="2552"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -19969,7 +20515,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -20043,7 +20589,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -20078,7 +20623,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -20254,1500 +20798,1820 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H111"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:I111"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D85" sqref="D85"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C110" sqref="C110"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="1.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="34.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="43.125" style="1" customWidth="1"/>
-    <col min="5" max="7" width="9" style="2"/>
-    <col min="8" max="8" width="37.5" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
+    <col min="3" max="3" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="47.375" style="1" customWidth="1"/>
+    <col min="6" max="8" width="9" style="2"/>
+    <col min="9" max="9" width="37.5" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="E2" s="14" t="s">
+    <row r="2" spans="2:9">
+      <c r="F2" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:9">
       <c r="B3" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="D3" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:9">
       <c r="B4" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="4">
+        <v>100</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="E4" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
-      <c r="H4" s="4"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="4"/>
     </row>
-    <row r="5" spans="2:8" ht="37.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:9" ht="37.5">
       <c r="B5" s="15"/>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="6">
+        <v>101</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="E5" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="E5" s="7"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="6"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:9">
       <c r="B6" s="15"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="7"/>
+      <c r="C6" s="6">
+        <v>102</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>90</v>
+      </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
-      <c r="H6" s="6"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:9" ht="37.5">
       <c r="B7" s="15"/>
-      <c r="C7" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="E7" s="7"/>
+      <c r="C7" s="6">
+        <v>103</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>91</v>
+      </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
-      <c r="H7" s="6"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="2:8" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:9">
       <c r="B8" s="15"/>
-      <c r="C8" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="E8" s="7"/>
+      <c r="C8" s="6">
+        <v>104</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>103</v>
+      </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
-      <c r="H8" s="6"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:9" ht="37.5">
       <c r="B9" s="15"/>
-      <c r="C9" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="E9" s="7"/>
+      <c r="C9" s="6">
+        <v>105</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>102</v>
+      </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
-      <c r="H9" s="6"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="2:8" ht="37.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:9">
       <c r="B10" s="15"/>
-      <c r="C10" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="E10" s="7"/>
+      <c r="C10" s="6">
+        <v>106</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>78</v>
+      </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
-      <c r="H10" s="6"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="6"/>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:9">
       <c r="B11" s="15"/>
-      <c r="C11" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="E11" s="7"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="11"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
-      <c r="H11" s="6"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="6"/>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:9">
       <c r="B12" s="15"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="7"/>
+      <c r="C12" s="6">
+        <v>120</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>92</v>
+      </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
-      <c r="H12" s="6"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="6"/>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:9">
       <c r="B13" s="15"/>
-      <c r="C13" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="E13" s="7"/>
+      <c r="C13" s="6">
+        <v>121</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>93</v>
+      </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
-      <c r="H13" s="6"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="6"/>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:9">
       <c r="B14" s="15"/>
-      <c r="C14" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="6"/>
+      <c r="C14" s="6">
+        <v>122</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" s="7"/>
+      <c r="I14" s="6"/>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:9">
       <c r="B15" s="15"/>
-      <c r="C15" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>17</v>
+      <c r="C15" s="6">
+        <v>123</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G15" s="7"/>
-      <c r="H15" s="6"/>
+      <c r="G15" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" s="7"/>
+      <c r="I15" s="6"/>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:9">
       <c r="B16" s="15"/>
-      <c r="C16" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>17</v>
+      <c r="C16" s="6">
+        <v>124</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>96</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G16" s="7"/>
-      <c r="H16" s="6"/>
+      <c r="G16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H16" s="7"/>
+      <c r="I16" s="6"/>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:9">
       <c r="B17" s="15"/>
-      <c r="C17" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>17</v>
+      <c r="C17" s="6">
+        <v>125</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>97</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G17" s="7"/>
-      <c r="H17" s="6"/>
+      <c r="G17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" s="7"/>
+      <c r="I17" s="6"/>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:9">
       <c r="B18" s="15"/>
-      <c r="C18" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>17</v>
-      </c>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="7"/>
       <c r="G18" s="7"/>
-      <c r="H18" s="6"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="6"/>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B19" s="15"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="6"/>
+    <row r="19" spans="2:9">
+      <c r="B19" s="20"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="8"/>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B20" s="20"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="8"/>
+    <row r="20" spans="2:9">
+      <c r="B20" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="C20" s="16">
+        <v>300</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="16"/>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B21" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="16"/>
+    <row r="21" spans="2:9">
+      <c r="B21" s="15"/>
+      <c r="C21" s="6">
+        <v>301</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="6"/>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:9">
       <c r="B22" s="15"/>
-      <c r="C22" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="E22" s="7"/>
+      <c r="C22" s="6">
+        <v>302</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>133</v>
+      </c>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
-      <c r="H22" s="6"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="6"/>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:9">
       <c r="B23" s="15"/>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="6">
+        <v>320</v>
+      </c>
+      <c r="D23" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="E23" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="E23" s="7"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
-      <c r="H23" s="6"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="6"/>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:9">
       <c r="B24" s="15"/>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="6">
+        <v>321</v>
+      </c>
+      <c r="D24" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="E24" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="E24" s="7"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
-      <c r="H24" s="6"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="6"/>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:9">
       <c r="B25" s="15"/>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="6">
+        <v>340</v>
+      </c>
+      <c r="D25" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="D25" s="11" t="s">
+      <c r="E25" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="E25" s="7"/>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
-      <c r="H25" s="6"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="6"/>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:9">
       <c r="B26" s="15"/>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="6">
+        <v>341</v>
+      </c>
+      <c r="D26" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="D26" s="11" t="s">
+      <c r="E26" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="E26" s="7"/>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
-      <c r="H26" s="6"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="6"/>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:9">
       <c r="B27" s="15"/>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="6">
+        <v>360</v>
+      </c>
+      <c r="D27" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D27" s="11" t="s">
+      <c r="E27" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="E27" s="7"/>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
-      <c r="H27" s="6"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="6"/>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:9">
       <c r="B28" s="15"/>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="6">
+        <v>361</v>
+      </c>
+      <c r="D28" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="D28" s="11" t="s">
+      <c r="E28" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="E28" s="7"/>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
-      <c r="H28" s="6"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="6"/>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:9">
       <c r="B29" s="15"/>
       <c r="C29" s="6"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="7"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="11"/>
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
-      <c r="H29" s="6"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="6"/>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:9">
       <c r="B30" s="15"/>
-      <c r="C30" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="E30" s="7"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="11"/>
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
-      <c r="H30" s="6"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="6"/>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B31" s="15"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="6"/>
+    <row r="31" spans="2:9">
+      <c r="B31" s="20"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="8"/>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B32" s="20"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="8"/>
+    <row r="32" spans="2:9">
+      <c r="B32" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C32" s="16">
+        <v>500</v>
+      </c>
+      <c r="D32" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="F32" s="19"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="16"/>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B33" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="C33" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D33" s="18" t="s">
-        <v>134</v>
-      </c>
-      <c r="E33" s="19"/>
-      <c r="F33" s="19"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="16"/>
+    <row r="33" spans="2:9">
+      <c r="B33" s="15"/>
+      <c r="C33" s="6">
+        <v>501</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="6"/>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:9">
       <c r="B34" s="15"/>
-      <c r="C34" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D34" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="E34" s="7"/>
+      <c r="C34" s="6">
+        <v>502</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>136</v>
+      </c>
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
-      <c r="H34" s="6"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="6"/>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:9">
       <c r="B35" s="15"/>
-      <c r="C35" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D35" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="E35" s="7"/>
+      <c r="C35" s="6">
+        <v>503</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>137</v>
+      </c>
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
-      <c r="H35" s="6"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="6"/>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:9">
       <c r="B36" s="15"/>
-      <c r="C36" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D36" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="E36" s="7"/>
+      <c r="C36" s="6">
+        <v>504</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>138</v>
+      </c>
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
-      <c r="H36" s="6"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="6"/>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:9">
       <c r="B37" s="15"/>
-      <c r="C37" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D37" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="E37" s="7"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="11"/>
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
-      <c r="H37" s="6"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="6"/>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:9">
       <c r="B38" s="15"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
+      <c r="C38" s="6">
+        <v>520</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="G38" s="7"/>
-      <c r="H38" s="6"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="6"/>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:9">
       <c r="B39" s="15"/>
-      <c r="C39" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D39" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="E39" s="7" t="s">
+      <c r="C39" s="6">
+        <v>521</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="F39" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F39" s="7"/>
       <c r="G39" s="7"/>
-      <c r="H39" s="6"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="6"/>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:9">
       <c r="B40" s="15"/>
-      <c r="C40" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D40" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="E40" s="7" t="s">
+      <c r="C40" s="6">
+        <v>522</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="F40" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F40" s="7"/>
       <c r="G40" s="7"/>
-      <c r="H40" s="6"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="6"/>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:9">
       <c r="B41" s="15"/>
-      <c r="C41" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D41" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="E41" s="7" t="s">
+      <c r="C41" s="6">
+        <v>523</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="F41" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F41" s="7"/>
       <c r="G41" s="7"/>
-      <c r="H41" s="6"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="6"/>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:9">
       <c r="B42" s="15"/>
-      <c r="C42" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D42" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="E42" s="7" t="s">
+      <c r="C42" s="6">
+        <v>524</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="F42" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F42" s="7"/>
       <c r="G42" s="7"/>
-      <c r="H42" s="6"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="6"/>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:9">
       <c r="B43" s="15"/>
-      <c r="C43" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D43" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="E43" s="7" t="s">
+      <c r="C43" s="6">
+        <v>525</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E43" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="F43" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F43" s="7"/>
       <c r="G43" s="7"/>
-      <c r="H43" s="6"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="6"/>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:9">
       <c r="B44" s="15"/>
-      <c r="C44" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D44" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="E44" s="7" t="s">
+      <c r="C44" s="6">
+        <v>526</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E44" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="F44" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F44" s="7"/>
       <c r="G44" s="7"/>
-      <c r="H44" s="6"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="6"/>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:9">
       <c r="B45" s="15"/>
-      <c r="C45" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D45" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>17</v>
-      </c>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="11"/>
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
-      <c r="H45" s="6"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="6"/>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:9" ht="37.5">
       <c r="B46" s="15"/>
-      <c r="C46" s="6"/>
-      <c r="D46" s="11"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="6"/>
+      <c r="C46" s="6">
+        <v>540</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E46" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H46" s="7"/>
+      <c r="I46" s="6"/>
     </row>
-    <row r="47" spans="2:8" ht="37.5" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:9">
       <c r="B47" s="15"/>
-      <c r="C47" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D47" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="E47" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F47" s="7" t="s">
-        <v>22</v>
-      </c>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="7"/>
       <c r="G47" s="7"/>
-      <c r="H47" s="6"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="6"/>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B48" s="15"/>
-      <c r="C48" s="6"/>
-      <c r="D48" s="11"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="7"/>
-      <c r="G48" s="7"/>
-      <c r="H48" s="6"/>
+    <row r="48" spans="2:9">
+      <c r="B48" s="20"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="8"/>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B49" s="20"/>
-      <c r="C49" s="8"/>
-      <c r="D49" s="12"/>
-      <c r="E49" s="9"/>
-      <c r="F49" s="9"/>
-      <c r="G49" s="9"/>
-      <c r="H49" s="8"/>
+    <row r="49" spans="2:9">
+      <c r="B49" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C49" s="16">
+        <v>600</v>
+      </c>
+      <c r="D49" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="E49" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="F49" s="19"/>
+      <c r="G49" s="19"/>
+      <c r="H49" s="19"/>
+      <c r="I49" s="16"/>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B50" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="C50" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="D50" s="18" t="s">
-        <v>147</v>
-      </c>
-      <c r="E50" s="19"/>
-      <c r="F50" s="19"/>
-      <c r="G50" s="19"/>
-      <c r="H50" s="16"/>
+    <row r="50" spans="2:9">
+      <c r="B50" s="15"/>
+      <c r="C50" s="6">
+        <v>601</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E50" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="7"/>
+      <c r="I50" s="6"/>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:9">
       <c r="B51" s="15"/>
-      <c r="C51" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D51" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="E51" s="7"/>
+      <c r="C51" s="6">
+        <v>602</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E51" s="11" t="s">
+        <v>149</v>
+      </c>
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
-      <c r="H51" s="6"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="6"/>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:9">
       <c r="B52" s="15"/>
-      <c r="C52" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D52" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="E52" s="7"/>
+      <c r="C52" s="6">
+        <v>603</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E52" s="11" t="s">
+        <v>150</v>
+      </c>
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
-      <c r="H52" s="6"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="6"/>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:9">
       <c r="B53" s="15"/>
-      <c r="C53" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D53" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="E53" s="7"/>
+      <c r="C53" s="6">
+        <v>604</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E53" s="11" t="s">
+        <v>151</v>
+      </c>
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
-      <c r="H53" s="6"/>
+      <c r="H53" s="7"/>
+      <c r="I53" s="6"/>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:9">
       <c r="B54" s="15"/>
-      <c r="C54" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D54" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="E54" s="7"/>
+      <c r="C54" s="6">
+        <v>620</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E54" s="11" t="s">
+        <v>152</v>
+      </c>
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
-      <c r="H54" s="6"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="6"/>
     </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:9">
       <c r="B55" s="15"/>
-      <c r="C55" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D55" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="E55" s="7"/>
+      <c r="C55" s="6">
+        <v>621</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E55" s="11" t="s">
+        <v>156</v>
+      </c>
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
-      <c r="H55" s="6"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="6"/>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:9">
       <c r="B56" s="15"/>
-      <c r="C56" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D56" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="E56" s="7"/>
-      <c r="F56" s="7"/>
-      <c r="G56" s="7"/>
-      <c r="H56" s="6"/>
+      <c r="C56" s="6">
+        <v>622</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E56" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G56" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H56" s="7"/>
+      <c r="I56" s="6" t="s">
+        <v>76</v>
+      </c>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:9">
       <c r="B57" s="15"/>
-      <c r="C57" s="6"/>
-      <c r="D57" s="11"/>
-      <c r="E57" s="7"/>
-      <c r="F57" s="7"/>
-      <c r="G57" s="7"/>
-      <c r="H57" s="6"/>
+      <c r="C57" s="6">
+        <v>623</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E57" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G57" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H57" s="7"/>
+      <c r="I57" s="6" t="s">
+        <v>76</v>
+      </c>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:9">
       <c r="B58" s="15"/>
-      <c r="C58" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D58" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="E58" s="7" t="s">
-        <v>17</v>
-      </c>
+      <c r="C58" s="6"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="11"/>
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
-      <c r="H58" s="6"/>
+      <c r="H58" s="7"/>
+      <c r="I58" s="6"/>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:9">
       <c r="B59" s="15"/>
-      <c r="C59" s="6" t="s">
+      <c r="C59" s="6">
+        <v>640</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E59" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="F59" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G59" s="7"/>
+      <c r="H59" s="7"/>
+      <c r="I59" s="6"/>
+    </row>
+    <row r="60" spans="2:9">
+      <c r="B60" s="15"/>
+      <c r="C60" s="6">
+        <v>641</v>
+      </c>
+      <c r="D60" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D59" s="11" t="s">
+      <c r="E60" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="E59" s="7" t="s">
+      <c r="F60" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F59" s="7" t="s">
+      <c r="G60" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="G59" s="7"/>
-      <c r="H59" s="6" t="s">
+      <c r="H60" s="7"/>
+      <c r="I60" s="6" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B60" s="15"/>
-      <c r="C60" s="6" t="s">
+    <row r="61" spans="2:9">
+      <c r="B61" s="15"/>
+      <c r="C61" s="6">
+        <v>642</v>
+      </c>
+      <c r="D61" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D60" s="11" t="s">
+      <c r="E61" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="E60" s="7" t="s">
+      <c r="F61" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F60" s="7" t="s">
+      <c r="G61" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="G60" s="7"/>
-      <c r="H60" s="6" t="s">
+      <c r="H61" s="7"/>
+      <c r="I61" s="6" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B61" s="15"/>
-      <c r="C61" s="6" t="s">
+    <row r="62" spans="2:9">
+      <c r="B62" s="15"/>
+      <c r="C62" s="6">
+        <v>643</v>
+      </c>
+      <c r="D62" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D61" s="11" t="s">
+      <c r="E62" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="E61" s="7" t="s">
+      <c r="F62" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F61" s="7" t="s">
+      <c r="G62" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="G61" s="7"/>
-      <c r="H61" s="6" t="s">
+      <c r="H62" s="7"/>
+      <c r="I62" s="6" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B62" s="15"/>
-      <c r="C62" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D62" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="E62" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F62" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G62" s="7"/>
-      <c r="H62" s="6" t="s">
-        <v>76</v>
-      </c>
+    <row r="63" spans="2:9">
+      <c r="B63" s="15"/>
+      <c r="C63" s="6"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="11"/>
+      <c r="F63" s="7"/>
+      <c r="G63" s="7"/>
+      <c r="H63" s="7"/>
+      <c r="I63" s="6"/>
     </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B63" s="15"/>
-      <c r="C63" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D63" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="E63" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F63" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G63" s="7"/>
-      <c r="H63" s="6" t="s">
-        <v>76</v>
-      </c>
+    <row r="64" spans="2:9">
+      <c r="B64" s="15"/>
+      <c r="C64" s="6">
+        <v>660</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E64" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="F64" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G64" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H64" s="7"/>
+      <c r="I64" s="6"/>
     </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B64" s="15"/>
-      <c r="C64" s="6"/>
-      <c r="D64" s="11"/>
-      <c r="E64" s="7"/>
-      <c r="F64" s="7"/>
-      <c r="G64" s="7"/>
-      <c r="H64" s="6"/>
-    </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:9">
       <c r="B65" s="15"/>
-      <c r="C65" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D65" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="E65" s="7" t="s">
-        <v>22</v>
+      <c r="C65" s="6">
+        <v>661</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E65" s="11" t="s">
+        <v>161</v>
       </c>
       <c r="F65" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G65" s="7"/>
-      <c r="H65" s="6"/>
+      <c r="G65" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H65" s="7"/>
+      <c r="I65" s="6"/>
     </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B66" s="15"/>
-      <c r="C66" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D66" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="E66" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F66" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G66" s="7"/>
-      <c r="H66" s="6"/>
+    <row r="66" spans="2:9">
+      <c r="B66" s="20"/>
+      <c r="C66" s="8"/>
+      <c r="D66" s="8"/>
+      <c r="E66" s="12"/>
+      <c r="F66" s="9"/>
+      <c r="G66" s="9"/>
+      <c r="H66" s="9"/>
+      <c r="I66" s="8"/>
     </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B67" s="20"/>
-      <c r="C67" s="8"/>
-      <c r="D67" s="12"/>
-      <c r="E67" s="9"/>
-      <c r="F67" s="9"/>
-      <c r="G67" s="9"/>
-      <c r="H67" s="8"/>
+    <row r="67" spans="2:9" ht="37.5">
+      <c r="B67" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C67" s="16">
+        <v>800</v>
+      </c>
+      <c r="D67" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="E67" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="F67" s="19"/>
+      <c r="G67" s="19"/>
+      <c r="H67" s="19"/>
+      <c r="I67" s="16"/>
     </row>
-    <row r="68" spans="2:8" ht="37.5" x14ac:dyDescent="0.15">
-      <c r="B68" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="C68" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="D68" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="E68" s="19"/>
-      <c r="F68" s="19"/>
-      <c r="G68" s="19"/>
-      <c r="H68" s="16"/>
+    <row r="68" spans="2:9" ht="37.5">
+      <c r="B68" s="15"/>
+      <c r="C68" s="6">
+        <v>801</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E68" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="F68" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G68" s="7"/>
+      <c r="H68" s="7"/>
+      <c r="I68" s="6"/>
     </row>
-    <row r="69" spans="2:8" ht="37.5" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:9" ht="37.5">
       <c r="B69" s="15"/>
-      <c r="C69" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D69" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="E69" s="7" t="s">
-        <v>17</v>
+      <c r="C69" s="6">
+        <v>820</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="E69" s="11" t="s">
+        <v>77</v>
       </c>
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
-      <c r="H69" s="6"/>
+      <c r="H69" s="7"/>
+      <c r="I69" s="6"/>
     </row>
-    <row r="70" spans="2:8" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="70" spans="2:9">
       <c r="B70" s="15"/>
-      <c r="C70" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D70" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="E70" s="7"/>
-      <c r="F70" s="7"/>
+      <c r="C70" s="6">
+        <v>821</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E70" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="F70" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="G70" s="7"/>
-      <c r="H70" s="6"/>
+      <c r="H70" s="7"/>
+      <c r="I70" s="6"/>
     </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="71" spans="2:9">
       <c r="B71" s="15"/>
-      <c r="C71" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="D71" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="E71" s="7" t="s">
+      <c r="C71" s="6">
+        <v>822</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E71" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="F71" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F71" s="7"/>
       <c r="G71" s="7"/>
-      <c r="H71" s="6"/>
+      <c r="H71" s="7"/>
+      <c r="I71" s="6"/>
     </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="72" spans="2:9">
       <c r="B72" s="15"/>
-      <c r="C72" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D72" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="E72" s="7" t="s">
-        <v>17</v>
-      </c>
+      <c r="C72" s="6"/>
+      <c r="D72" s="6"/>
+      <c r="E72" s="11"/>
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
-      <c r="H72" s="6"/>
+      <c r="H72" s="7"/>
+      <c r="I72" s="6"/>
     </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="73" spans="2:9" ht="56.25">
       <c r="B73" s="15"/>
-      <c r="C73" s="6"/>
-      <c r="D73" s="11"/>
-      <c r="E73" s="7"/>
-      <c r="F73" s="7"/>
+      <c r="C73" s="6">
+        <v>840</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="E73" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="F73" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="G73" s="7"/>
-      <c r="H73" s="6"/>
+      <c r="H73" s="7"/>
+      <c r="I73" s="6"/>
     </row>
-    <row r="74" spans="2:8" ht="75" x14ac:dyDescent="0.15">
+    <row r="74" spans="2:9">
       <c r="B74" s="15"/>
-      <c r="C74" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="D74" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="E74" s="7" t="s">
+      <c r="C74" s="6">
+        <v>841</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="E74" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="F74" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F74" s="7"/>
       <c r="G74" s="7"/>
-      <c r="H74" s="6"/>
+      <c r="H74" s="7"/>
+      <c r="I74" s="6"/>
     </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="75" spans="2:9">
       <c r="B75" s="15"/>
-      <c r="C75" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="D75" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="E75" s="7" t="s">
+      <c r="C75" s="6">
+        <v>842</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E75" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="F75" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F75" s="7"/>
       <c r="G75" s="7"/>
-      <c r="H75" s="6"/>
+      <c r="H75" s="7"/>
+      <c r="I75" s="6"/>
     </row>
-    <row r="76" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="76" spans="2:9">
       <c r="B76" s="15"/>
-      <c r="C76" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="D76" s="11" t="s">
+      <c r="C76" s="6">
+        <v>843</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="E76" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="E76" s="7" t="s">
+      <c r="F76" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F76" s="7"/>
       <c r="G76" s="7"/>
-      <c r="H76" s="6"/>
+      <c r="H76" s="7"/>
+      <c r="I76" s="6"/>
     </row>
-    <row r="77" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="77" spans="2:9">
       <c r="B77" s="15"/>
-      <c r="C77" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="D77" s="11" t="s">
+      <c r="C77" s="6">
+        <v>844</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="E77" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="E77" s="7" t="s">
+      <c r="F77" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F77" s="7"/>
       <c r="G77" s="7"/>
-      <c r="H77" s="6"/>
+      <c r="H77" s="7"/>
+      <c r="I77" s="6"/>
     </row>
-    <row r="78" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="78" spans="2:9">
       <c r="B78" s="15"/>
-      <c r="C78" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="D78" s="11" t="s">
+      <c r="C78" s="6">
+        <v>845</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="E78" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="E78" s="7" t="s">
+      <c r="F78" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F78" s="7"/>
       <c r="G78" s="7"/>
-      <c r="H78" s="6"/>
+      <c r="H78" s="7"/>
+      <c r="I78" s="6"/>
     </row>
-    <row r="79" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="79" spans="2:9">
       <c r="B79" s="15"/>
-      <c r="C79" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="D79" s="11" t="s">
+      <c r="C79" s="6">
+        <v>846</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="E79" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="E79" s="7" t="s">
+      <c r="F79" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F79" s="7"/>
       <c r="G79" s="7"/>
-      <c r="H79" s="6"/>
+      <c r="H79" s="7"/>
+      <c r="I79" s="6"/>
     </row>
-    <row r="80" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="80" spans="2:9">
       <c r="B80" s="15"/>
-      <c r="C80" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="D80" s="11" t="s">
+      <c r="C80" s="6">
+        <v>847</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="E80" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="E80" s="7" t="s">
+      <c r="F80" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F80" s="7"/>
       <c r="G80" s="7"/>
-      <c r="H80" s="6"/>
+      <c r="H80" s="7"/>
+      <c r="I80" s="6"/>
     </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="81" spans="2:9">
       <c r="B81" s="15"/>
-      <c r="C81" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="D81" s="11" t="s">
+      <c r="C81" s="6">
+        <v>848</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="E81" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="E81" s="7" t="s">
+      <c r="F81" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F81" s="7"/>
       <c r="G81" s="7"/>
-      <c r="H81" s="6"/>
+      <c r="H81" s="7"/>
+      <c r="I81" s="6"/>
     </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="82" spans="2:9">
       <c r="B82" s="15"/>
-      <c r="C82" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="D82" s="11" t="s">
+      <c r="C82" s="6">
+        <v>849</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="E82" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="E82" s="7" t="s">
+      <c r="F82" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F82" s="7"/>
       <c r="G82" s="7"/>
-      <c r="H82" s="6"/>
+      <c r="H82" s="7"/>
+      <c r="I82" s="6"/>
     </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="83" spans="2:9">
       <c r="B83" s="15"/>
-      <c r="C83" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="D83" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="E83" s="7" t="s">
-        <v>17</v>
-      </c>
+      <c r="C83" s="6"/>
+      <c r="D83" s="6"/>
+      <c r="E83" s="11"/>
       <c r="F83" s="7"/>
       <c r="G83" s="7"/>
-      <c r="H83" s="6"/>
+      <c r="H83" s="7"/>
+      <c r="I83" s="6"/>
     </row>
-    <row r="84" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="84" spans="2:9">
       <c r="B84" s="15"/>
-      <c r="C84" s="6"/>
-      <c r="D84" s="11"/>
-      <c r="E84" s="7"/>
-      <c r="F84" s="7"/>
+      <c r="C84" s="6">
+        <v>860</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="E84" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="F84" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="G84" s="7"/>
-      <c r="H84" s="6"/>
+      <c r="H84" s="7"/>
+      <c r="I84" s="6"/>
     </row>
-    <row r="85" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="85" spans="2:9">
       <c r="B85" s="15"/>
-      <c r="C85" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="D85" s="11" t="s">
+      <c r="C85" s="6">
+        <v>861</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="E85" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="E85" s="7" t="s">
+      <c r="F85" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F85" s="7"/>
       <c r="G85" s="7"/>
-      <c r="H85" s="6"/>
+      <c r="H85" s="7"/>
+      <c r="I85" s="6"/>
     </row>
-    <row r="86" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="86" spans="2:9">
       <c r="B86" s="15"/>
-      <c r="C86" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="D86" s="11"/>
-      <c r="E86" s="7" t="s">
+      <c r="C86" s="6">
+        <v>862</v>
+      </c>
+      <c r="D86" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="E86" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="F86" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F86" s="7"/>
       <c r="G86" s="7"/>
-      <c r="H86" s="6"/>
+      <c r="H86" s="7"/>
+      <c r="I86" s="6"/>
     </row>
-    <row r="87" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="87" spans="2:9">
       <c r="B87" s="15"/>
-      <c r="C87" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="D87" s="11"/>
-      <c r="E87" s="7" t="s">
+      <c r="C87" s="6">
+        <v>863</v>
+      </c>
+      <c r="D87" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="E87" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="F87" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F87" s="7"/>
       <c r="G87" s="7"/>
-      <c r="H87" s="6"/>
+      <c r="H87" s="7"/>
+      <c r="I87" s="6"/>
     </row>
-    <row r="88" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="88" spans="2:9">
       <c r="B88" s="15"/>
-      <c r="C88" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="D88" s="11"/>
-      <c r="E88" s="7" t="s">
+      <c r="C88" s="6">
+        <v>864</v>
+      </c>
+      <c r="D88" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="E88" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="F88" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F88" s="7"/>
       <c r="G88" s="7"/>
-      <c r="H88" s="6"/>
+      <c r="H88" s="7"/>
+      <c r="I88" s="6"/>
     </row>
-    <row r="89" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="89" spans="2:9">
       <c r="B89" s="15"/>
-      <c r="C89" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="D89" s="11"/>
-      <c r="E89" s="7" t="s">
+      <c r="C89" s="6">
+        <v>865</v>
+      </c>
+      <c r="D89" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="E89" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="F89" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F89" s="7"/>
       <c r="G89" s="7"/>
-      <c r="H89" s="6"/>
+      <c r="H89" s="7"/>
+      <c r="I89" s="6"/>
     </row>
-    <row r="90" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="90" spans="2:9">
       <c r="B90" s="15"/>
-      <c r="C90" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="D90" s="11"/>
-      <c r="E90" s="7" t="s">
+      <c r="C90" s="6">
+        <v>866</v>
+      </c>
+      <c r="D90" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="E90" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="F90" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F90" s="7"/>
       <c r="G90" s="7"/>
-      <c r="H90" s="6"/>
+      <c r="H90" s="7"/>
+      <c r="I90" s="6"/>
     </row>
-    <row r="91" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="91" spans="2:9" ht="37.5">
       <c r="B91" s="15"/>
-      <c r="C91" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="D91" s="11"/>
-      <c r="E91" s="7" t="s">
+      <c r="C91" s="6">
+        <v>867</v>
+      </c>
+      <c r="D91" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="E91" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="F91" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F91" s="7"/>
       <c r="G91" s="7"/>
-      <c r="H91" s="6"/>
+      <c r="H91" s="7"/>
+      <c r="I91" s="6"/>
     </row>
-    <row r="92" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="92" spans="2:9">
       <c r="B92" s="15"/>
-      <c r="C92" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="D92" s="11"/>
-      <c r="E92" s="7" t="s">
-        <v>17</v>
-      </c>
+      <c r="C92" s="6"/>
+      <c r="D92" s="6"/>
+      <c r="E92" s="11"/>
       <c r="F92" s="7"/>
       <c r="G92" s="7"/>
-      <c r="H92" s="6"/>
+      <c r="H92" s="7"/>
+      <c r="I92" s="6"/>
     </row>
-    <row r="93" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="93" spans="2:9">
       <c r="B93" s="15"/>
       <c r="C93" s="6"/>
-      <c r="D93" s="11"/>
-      <c r="E93" s="7"/>
-      <c r="F93" s="7"/>
+      <c r="D93" s="6"/>
+      <c r="E93" s="11"/>
+      <c r="F93" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="G93" s="7"/>
-      <c r="H93" s="6"/>
+      <c r="H93" s="7"/>
+      <c r="I93" s="6"/>
     </row>
-    <row r="94" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="94" spans="2:9">
       <c r="B94" s="15"/>
-      <c r="C94" s="6"/>
-      <c r="D94" s="11"/>
-      <c r="E94" s="7" t="s">
+      <c r="C94" s="6">
+        <v>880</v>
+      </c>
+      <c r="D94" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E94" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="F94" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F94" s="7"/>
       <c r="G94" s="7"/>
-      <c r="H94" s="6"/>
+      <c r="H94" s="7"/>
+      <c r="I94" s="6"/>
     </row>
-    <row r="95" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="95" spans="2:9">
       <c r="B95" s="15"/>
-      <c r="C95" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D95" s="11"/>
-      <c r="E95" s="7" t="s">
+      <c r="C95" s="6">
+        <v>881</v>
+      </c>
+      <c r="D95" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E95" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="F95" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F95" s="7"/>
       <c r="G95" s="7"/>
-      <c r="H95" s="6"/>
+      <c r="H95" s="7"/>
+      <c r="I95" s="6"/>
     </row>
-    <row r="96" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="96" spans="2:9">
       <c r="B96" s="15"/>
-      <c r="C96" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D96" s="11"/>
-      <c r="E96" s="7" t="s">
+      <c r="C96" s="6">
+        <v>882</v>
+      </c>
+      <c r="D96" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E96" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="F96" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F96" s="7"/>
       <c r="G96" s="7"/>
-      <c r="H96" s="6"/>
+      <c r="H96" s="7"/>
+      <c r="I96" s="6"/>
     </row>
-    <row r="97" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="97" spans="2:9">
       <c r="B97" s="15"/>
-      <c r="C97" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D97" s="11"/>
-      <c r="E97" s="7" t="s">
+      <c r="C97" s="6">
+        <v>883</v>
+      </c>
+      <c r="D97" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E97" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="F97" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F97" s="7"/>
       <c r="G97" s="7"/>
-      <c r="H97" s="6"/>
+      <c r="H97" s="7"/>
+      <c r="I97" s="6"/>
     </row>
-    <row r="98" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="98" spans="2:9">
       <c r="B98" s="15"/>
-      <c r="C98" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D98" s="11"/>
-      <c r="E98" s="7" t="s">
+      <c r="C98" s="6">
+        <v>884</v>
+      </c>
+      <c r="D98" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E98" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="F98" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F98" s="7"/>
       <c r="G98" s="7"/>
-      <c r="H98" s="6"/>
+      <c r="H98" s="7"/>
+      <c r="I98" s="6"/>
     </row>
-    <row r="99" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="99" spans="2:9">
       <c r="B99" s="15"/>
-      <c r="C99" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D99" s="11"/>
-      <c r="E99" s="7" t="s">
+      <c r="C99" s="6">
+        <v>885</v>
+      </c>
+      <c r="D99" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E99" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="F99" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F99" s="7"/>
       <c r="G99" s="7"/>
-      <c r="H99" s="6"/>
+      <c r="H99" s="7"/>
+      <c r="I99" s="6"/>
     </row>
-    <row r="100" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="100" spans="2:9">
       <c r="B100" s="15"/>
-      <c r="C100" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D100" s="11"/>
-      <c r="E100" s="7" t="s">
+      <c r="C100" s="6">
+        <v>886</v>
+      </c>
+      <c r="D100" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E100" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="F100" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F100" s="7"/>
       <c r="G100" s="7"/>
-      <c r="H100" s="6"/>
+      <c r="H100" s="7"/>
+      <c r="I100" s="6"/>
     </row>
-    <row r="101" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="101" spans="2:9">
       <c r="B101" s="15"/>
-      <c r="C101" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D101" s="11"/>
-      <c r="E101" s="7" t="s">
+      <c r="C101" s="6">
+        <v>887</v>
+      </c>
+      <c r="D101" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E101" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="F101" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F101" s="7"/>
       <c r="G101" s="7"/>
-      <c r="H101" s="6"/>
+      <c r="H101" s="7"/>
+      <c r="I101" s="6"/>
     </row>
-    <row r="102" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="102" spans="2:9">
       <c r="B102" s="15"/>
-      <c r="C102" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D102" s="11"/>
-      <c r="E102" s="7" t="s">
+      <c r="C102" s="6">
+        <v>888</v>
+      </c>
+      <c r="D102" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="E102" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="F102" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F102" s="7"/>
       <c r="G102" s="7"/>
-      <c r="H102" s="6"/>
+      <c r="H102" s="7"/>
+      <c r="I102" s="6"/>
     </row>
-    <row r="103" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="103" spans="2:9">
       <c r="B103" s="15"/>
-      <c r="C103" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="D103" s="11"/>
-      <c r="E103" s="7" t="s">
+      <c r="C103" s="6">
+        <v>889</v>
+      </c>
+      <c r="D103" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E103" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="F103" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F103" s="7"/>
       <c r="G103" s="7"/>
-      <c r="H103" s="6"/>
+      <c r="H103" s="7"/>
+      <c r="I103" s="6"/>
     </row>
-    <row r="104" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="104" spans="2:9">
       <c r="B104" s="15"/>
-      <c r="C104" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D104" s="11"/>
-      <c r="E104" s="7" t="s">
+      <c r="C104" s="6">
+        <v>890</v>
+      </c>
+      <c r="D104" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E104" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="F104" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F104" s="7"/>
       <c r="G104" s="7"/>
-      <c r="H104" s="6"/>
+      <c r="H104" s="7"/>
+      <c r="I104" s="6"/>
     </row>
-    <row r="105" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="105" spans="2:9">
       <c r="B105" s="15"/>
-      <c r="C105" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D105" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="E105" s="7" t="s">
+      <c r="C105" s="6">
+        <v>891</v>
+      </c>
+      <c r="D105" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E105" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="F105" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F105" s="7"/>
       <c r="G105" s="7"/>
-      <c r="H105" s="6"/>
+      <c r="H105" s="7"/>
+      <c r="I105" s="6"/>
     </row>
-    <row r="106" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="106" spans="2:9">
       <c r="B106" s="15"/>
-      <c r="C106" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D106" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="E106" s="7" t="s">
-        <v>17</v>
-      </c>
+      <c r="C106" s="6"/>
+      <c r="D106" s="6"/>
+      <c r="E106" s="11"/>
       <c r="F106" s="7"/>
       <c r="G106" s="7"/>
-      <c r="H106" s="6"/>
+      <c r="H106" s="7"/>
+      <c r="I106" s="6"/>
     </row>
-    <row r="107" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="107" spans="2:9">
       <c r="B107" s="15"/>
-      <c r="C107" s="6" t="s">
+      <c r="C107" s="6">
+        <v>900</v>
+      </c>
+      <c r="D107" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D107" s="11"/>
-      <c r="E107" s="7" t="s">
+      <c r="E107" s="11"/>
+      <c r="F107" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F107" s="7"/>
       <c r="G107" s="7"/>
-      <c r="H107" s="6"/>
+      <c r="H107" s="7"/>
+      <c r="I107" s="6"/>
     </row>
-    <row r="108" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="108" spans="2:9">
       <c r="B108" s="20"/>
       <c r="C108" s="8"/>
-      <c r="D108" s="12"/>
-      <c r="E108" s="9"/>
+      <c r="D108" s="8"/>
+      <c r="E108" s="12"/>
       <c r="F108" s="9"/>
       <c r="G108" s="9"/>
-      <c r="H108" s="8"/>
+      <c r="H108" s="9"/>
+      <c r="I108" s="8"/>
     </row>
-    <row r="109" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="109" spans="2:9">
       <c r="B109" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="C109" s="16" t="s">
+      <c r="C109" s="16">
+        <v>1000</v>
+      </c>
+      <c r="D109" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D109" s="18"/>
-      <c r="E109" s="19" t="s">
-        <v>17</v>
-      </c>
+      <c r="E109" s="18"/>
       <c r="F109" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="G109" s="19"/>
-      <c r="H109" s="16"/>
+      <c r="G109" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="H109" s="19"/>
+      <c r="I109" s="16"/>
     </row>
-    <row r="110" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="110" spans="2:9">
       <c r="B110" s="15"/>
       <c r="C110" s="6"/>
-      <c r="D110" s="11"/>
-      <c r="E110" s="7"/>
+      <c r="D110" s="6"/>
+      <c r="E110" s="11"/>
       <c r="F110" s="7"/>
       <c r="G110" s="7"/>
-      <c r="H110" s="6"/>
+      <c r="H110" s="7"/>
+      <c r="I110" s="6"/>
     </row>
-    <row r="111" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="111" spans="2:9">
       <c r="B111" s="20"/>
       <c r="C111" s="8"/>
-      <c r="D111" s="12"/>
-      <c r="E111" s="9"/>
+      <c r="D111" s="8"/>
+      <c r="E111" s="12"/>
       <c r="F111" s="9"/>
       <c r="G111" s="9"/>
-      <c r="H111" s="8"/>
+      <c r="H111" s="9"/>
+      <c r="I111" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="F2:H2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -21757,14 +22621,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView showGridLines="0" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -21774,14 +22638,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView showGridLines="0" topLeftCell="A49" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -21791,14 +22655,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -21808,14 +22672,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -21825,14 +22689,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -21842,14 +22706,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -21859,14 +22723,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F56" sqref="F56"/>
+    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/documents/画面一覧・遷移図.xlsx
+++ b/documents/画面一覧・遷移図.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="90" windowWidth="23715" windowHeight="14355" firstSheet="2" activeTab="4"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="191">
   <si>
     <t>トップページ</t>
     <phoneticPr fontId="1"/>
@@ -181,10 +181,6 @@
   </si>
   <si>
     <t>サイトアクセスログ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>△</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -353,13 +349,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>サイト所有ユーザーのみ</t>
-    <rPh sb="3" eb="5">
-      <t>ショユウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>メールアドレスを入れてもらい、DB上に登録されているものなら再設定入力画面のURLを送る</t>
     <rPh sb="8" eb="9">
       <t>イ</t>
@@ -1553,12 +1542,26 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>サイト登録確認</t>
+    <rPh sb="3" eb="5">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2428,7 +2431,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2448,7 +2451,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -4585,7 +4588,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -4605,7 +4608,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -6262,7 +6265,7 @@
               <a:latin typeface="メイリオ" pitchFamily="50" charset="-128"/>
               <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>ユーザーのいいねしたサイト</a:t>
+            <a:t>ユーザーがいいねしたサイト</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -7083,7 +7086,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -7103,7 +7106,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -7138,7 +7141,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -7158,7 +7161,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -12638,10 +12641,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>314431</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>516137</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>134470</xdr:rowOff>
+      <xdr:rowOff>112059</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="889987" cy="367408"/>
     <xdr:sp macro="" textlink="">
@@ -12651,7 +12654,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="314431" y="638735"/>
+          <a:off x="1883255" y="616324"/>
           <a:ext cx="889987" cy="367408"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12697,8 +12700,8 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>212910</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>257733</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>156883</xdr:rowOff>
     </xdr:from>
@@ -12710,7 +12713,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2263586" y="1501589"/>
+          <a:off x="3675527" y="1501589"/>
           <a:ext cx="889988" cy="367408"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12756,8 +12759,8 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>431750</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>476573</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
@@ -12769,7 +12772,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3849544" y="1512795"/>
+          <a:off x="5261485" y="1512795"/>
           <a:ext cx="1595309" cy="367408"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12815,8 +12818,8 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>479221</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>524045</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
@@ -12828,7 +12831,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5947692" y="1512795"/>
+          <a:off x="7359633" y="1512795"/>
           <a:ext cx="748923" cy="367408"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12874,8 +12877,8 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>619620</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>664444</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>134470</xdr:rowOff>
     </xdr:from>
@@ -12887,7 +12890,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1986738" y="638735"/>
+          <a:off x="3398679" y="638735"/>
           <a:ext cx="1454244" cy="367408"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12933,8 +12936,8 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>504264</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>549087</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>123264</xdr:rowOff>
     </xdr:from>
@@ -12946,7 +12949,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3922058" y="627529"/>
+          <a:off x="5333999" y="627529"/>
           <a:ext cx="889988" cy="367408"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12992,8 +12995,8 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>166107</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>210930</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>22411</xdr:rowOff>
     </xdr:from>
@@ -13005,7 +13008,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2900342" y="2879911"/>
+          <a:off x="4312283" y="2879911"/>
           <a:ext cx="2018501" cy="367408"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -13051,8 +13054,8 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>235324</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>280147</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>78440</xdr:rowOff>
     </xdr:from>
@@ -13064,7 +13067,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2969559" y="3608293"/>
+          <a:off x="4381500" y="3608293"/>
           <a:ext cx="1877437" cy="367408"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -13116,14 +13119,14 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>23188</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>68011</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>138880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>504264</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>549087</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>150086</xdr:rowOff>
     </xdr:to>
@@ -13137,7 +13140,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3440982" y="811233"/>
+          <a:off x="4852923" y="811233"/>
           <a:ext cx="481076" cy="11206"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
@@ -13168,14 +13171,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>657904</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>19168</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>154496</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>265699</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>310522</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>156883</xdr:rowOff>
     </xdr:to>
@@ -13189,7 +13192,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000" flipH="1" flipV="1">
-          <a:off x="3284490" y="419027"/>
+          <a:off x="4696431" y="419027"/>
           <a:ext cx="506652" cy="1658472"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
@@ -13220,16 +13223,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>75865</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>277574</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>165702</xdr:rowOff>
+      <xdr:rowOff>143290</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>212909</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>257734</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>4411</xdr:rowOff>
+      <xdr:rowOff>4410</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -13241,8 +13244,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="1171930" y="593637"/>
-          <a:ext cx="679150" cy="1504161"/>
+          <a:off x="2651108" y="660873"/>
+          <a:ext cx="701561" cy="1347278"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -13270,14 +13273,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>657904</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>19168</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>165702</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>663184</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>24448</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>156883</xdr:rowOff>
     </xdr:to>
@@ -13291,7 +13294,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000" flipH="1" flipV="1">
-          <a:off x="2463497" y="1251226"/>
+          <a:off x="3875438" y="1251226"/>
           <a:ext cx="495446" cy="5280"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
@@ -13322,14 +13325,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>419339</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>464162</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>4411</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>431750</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>476573</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>15617</xdr:rowOff>
     </xdr:to>
@@ -13343,7 +13346,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3153574" y="1685293"/>
+          <a:off x="4565515" y="1685293"/>
           <a:ext cx="695970" cy="11206"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
@@ -13374,14 +13377,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>659941</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>21206</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>15617</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>479221</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>524045</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>28317</xdr:rowOff>
     </xdr:to>
@@ -13395,7 +13398,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5444853" y="1696499"/>
+          <a:off x="6856794" y="1696499"/>
           <a:ext cx="502839" cy="12700"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
@@ -13426,14 +13429,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>657904</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>19168</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>20026</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>166107</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>210930</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>38027</xdr:rowOff>
     </xdr:to>
@@ -13447,7 +13450,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="2207152" y="2370425"/>
+          <a:off x="3619093" y="2370425"/>
           <a:ext cx="1194618" cy="191762"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
@@ -13476,14 +13479,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>490484</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>535307</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>53644</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>491799</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>536622</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>78441</xdr:rowOff>
     </xdr:to>
@@ -13497,7 +13500,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="3728449" y="3427149"/>
+          <a:off x="5140390" y="3427149"/>
           <a:ext cx="360974" cy="1315"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
@@ -13528,14 +13531,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>657903</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>19167</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>20026</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>235323</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>280146</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>94056</xdr:rowOff>
     </xdr:to>
@@ -13549,7 +13552,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="1877569" y="2700007"/>
+          <a:off x="3289510" y="2700007"/>
           <a:ext cx="1923000" cy="260979"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
@@ -13578,8 +13581,8 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>493059</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>537883</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>78440</xdr:rowOff>
     </xdr:from>
@@ -13591,7 +13594,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5277971" y="3608293"/>
+          <a:off x="6689912" y="3608293"/>
           <a:ext cx="1843325" cy="367408"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -13664,14 +13667,14 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>62084</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>106908</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>94056</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>493059</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>537883</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>106756</xdr:rowOff>
     </xdr:to>
@@ -13685,7 +13688,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4846996" y="3791997"/>
+          <a:off x="6258937" y="3791997"/>
           <a:ext cx="430975" cy="12700"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
@@ -13716,8 +13719,8 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>437029</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>481853</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>123264</xdr:rowOff>
     </xdr:from>
@@ -13729,7 +13732,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5221941" y="627529"/>
+          <a:off x="6633882" y="627529"/>
           <a:ext cx="1561197" cy="367408"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -13802,14 +13805,14 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>27134</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>71958</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>138880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>437029</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>481853</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>151580</xdr:rowOff>
     </xdr:to>
@@ -13823,7 +13826,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4812046" y="811233"/>
+          <a:off x="6223987" y="811233"/>
           <a:ext cx="409895" cy="12700"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
@@ -13854,8 +13857,8 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>44824</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
@@ -13867,7 +13870,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5468471" y="2185147"/>
+          <a:off x="6880412" y="2185147"/>
           <a:ext cx="1702261" cy="367408"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -13940,14 +13943,14 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>167573</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>212396</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>31232</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>170125</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>214948</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -13961,7 +13964,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="6168406" y="2031399"/>
+          <a:off x="7580347" y="2031399"/>
           <a:ext cx="304944" cy="2552"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
@@ -13992,10 +13995,10 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>277516</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>44823</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>221486</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>33617</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1172116" cy="367408"/>
     <xdr:sp macro="" textlink="">
@@ -14005,7 +14008,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3011751" y="4583205"/>
+          <a:off x="1588604" y="2050676"/>
           <a:ext cx="1172116" cy="367408"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -14051,10 +14054,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>270256</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>123265</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>527991</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1595310" cy="367408"/>
     <xdr:sp macro="" textlink="">
@@ -14064,7 +14067,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3004491" y="5334000"/>
+          <a:off x="1211550" y="3137647"/>
           <a:ext cx="1595310" cy="367408"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -14110,10 +14113,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>56029</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>44824</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>358588</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>100852</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1172116" cy="367408"/>
     <xdr:sp macro="" textlink="">
@@ -14123,7 +14126,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4840941" y="4583206"/>
+          <a:off x="358588" y="2622176"/>
           <a:ext cx="1172116" cy="367408"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -14169,10 +14172,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>79756</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>145677</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>158198</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>44824</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1595310" cy="367408"/>
     <xdr:sp macro="" textlink="">
@@ -14182,7 +14185,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4864668" y="5356412"/>
+          <a:off x="158198" y="3742765"/>
           <a:ext cx="1595310" cy="367408"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -14228,10 +14231,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>528660</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>89647</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>394189</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>100852</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1031052" cy="367408"/>
     <xdr:sp macro="" textlink="">
@@ -14241,7 +14244,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3262895" y="6140823"/>
+          <a:off x="1761307" y="4471146"/>
           <a:ext cx="1031052" cy="367408"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -14287,10 +14290,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>326952</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>89647</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>35599</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>44823</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1031052" cy="367408"/>
     <xdr:sp macro="" textlink="">
@@ -14300,7 +14303,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5111864" y="6140823"/>
+          <a:off x="719158" y="5087470"/>
           <a:ext cx="1031052" cy="367408"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -14344,6 +14347,318 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>26485</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>4411</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>257733</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>49233</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="34" name="カギ線コネクタ 33"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="131" idx="3"/>
+          <a:endCxn id="39" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2760720" y="1685293"/>
+          <a:ext cx="914807" cy="549087"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>72625</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>4411</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>257733</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>127675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="37" name="カギ線コネクタ 36"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="132" idx="3"/>
+          <a:endCxn id="39" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2806860" y="1685293"/>
+          <a:ext cx="868667" cy="1636058"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>261087</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>49233</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>221486</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>100852</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="43" name="カギ線コネクタ 42"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="133" idx="0"/>
+          <a:endCxn id="131" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="1072727" y="2106299"/>
+          <a:ext cx="387796" cy="643958"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>272293</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>127676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>527990</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>44825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="48" name="カギ線コネクタ 47"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="134" idx="0"/>
+          <a:endCxn id="132" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="872994" y="3404210"/>
+          <a:ext cx="421414" cy="255697"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>58124</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>4411</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>257733</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>116468</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="52" name="カギ線コネクタ 51"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="135" idx="3"/>
+          <a:endCxn id="39" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2792359" y="1685293"/>
+          <a:ext cx="883168" cy="2969557"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>551124</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>116469</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>394188</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>44824</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="56" name="カギ線コネクタ 55"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="136" idx="0"/>
+          <a:endCxn id="135" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="1281685" y="4607849"/>
+          <a:ext cx="432620" cy="526623"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -16975,10 +17290,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>291353</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>89647</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>100853</xdr:rowOff>
+      <xdr:rowOff>89647</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="889988" cy="367408"/>
     <xdr:sp macro="" textlink="">
@@ -16988,7 +17303,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3025588" y="605118"/>
+          <a:off x="1456765" y="593912"/>
           <a:ext cx="889988" cy="367408"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -17808,26 +18123,137 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>52785</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>132086</xdr:rowOff>
+      <xdr:rowOff>109673</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>52788</xdr:colOff>
+      <xdr:colOff>52789</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>145675</xdr:rowOff>
+      <xdr:rowOff>145674</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="106" name="カギ線コネクタ 105"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="36" idx="2"/>
+          <a:stCxn id="32" idx="2"/>
           <a:endCxn id="4" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="3043566" y="1399540"/>
-          <a:ext cx="854030" cy="3"/>
+          <a:off x="3200448" y="1220245"/>
+          <a:ext cx="540266" cy="4"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>150290</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>78441</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1172116" cy="367408"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="テキスト ボックス 31"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2884525" y="582706"/>
+          <a:ext cx="1172116" cy="367408"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="メイリオ" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>サイト登録確認</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:latin typeface="メイリオ" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>296077</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>94057</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>150290</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>105263</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="34" name="カギ線コネクタ 33"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="36" idx="3"/>
+          <a:endCxn id="32" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2346753" y="766410"/>
+          <a:ext cx="537772" cy="11206"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -20515,7 +20941,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -20589,6 +21015,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -20623,6 +21050,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -20798,15 +21226,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:I111"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:I112"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C110" sqref="C110"/>
+      <pane ySplit="3" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E63" sqref="E63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="1.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.125" style="1" customWidth="1"/>
@@ -20818,25 +21246,25 @@
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.15">
       <c r="F2" s="21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G2" s="21"/>
       <c r="H2" s="21"/>
     </row>
-    <row r="3" spans="2:9">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B3" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D3" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>72</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>73</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>14</v>
@@ -20848,12 +21276,12 @@
         <v>16</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
-    <row r="4" spans="2:9">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B4" s="17" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C4" s="4">
         <v>100</v>
@@ -20862,14 +21290,14 @@
         <v>0</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
       <c r="I4" s="4"/>
     </row>
-    <row r="5" spans="2:9" ht="37.5">
+    <row r="5" spans="2:9" ht="37.5" x14ac:dyDescent="0.15">
       <c r="B5" s="15"/>
       <c r="C5" s="6">
         <v>101</v>
@@ -20878,14 +21306,14 @@
         <v>1</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="2:9">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B6" s="15"/>
       <c r="C6" s="6">
         <v>102</v>
@@ -20894,14 +21322,14 @@
         <v>2</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="2:9" ht="37.5">
+    <row r="7" spans="2:9" ht="37.5" x14ac:dyDescent="0.15">
       <c r="B7" s="15"/>
       <c r="C7" s="6">
         <v>103</v>
@@ -20910,62 +21338,62 @@
         <v>3</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="2:9">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B8" s="15"/>
       <c r="C8" s="6">
         <v>104</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="2:9" ht="37.5">
+    <row r="9" spans="2:9" ht="37.5" x14ac:dyDescent="0.15">
       <c r="B9" s="15"/>
       <c r="C9" s="6">
         <v>105</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="2:9">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B10" s="15"/>
       <c r="C10" s="6">
         <v>106</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
       <c r="I10" s="6"/>
     </row>
-    <row r="11" spans="2:9">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B11" s="15"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
@@ -20975,7 +21403,7 @@
       <c r="H11" s="7"/>
       <c r="I11" s="6"/>
     </row>
-    <row r="12" spans="2:9">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B12" s="15"/>
       <c r="C12" s="6">
         <v>120</v>
@@ -20984,30 +21412,30 @@
         <v>11</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
       <c r="I12" s="6"/>
     </row>
-    <row r="13" spans="2:9">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B13" s="15"/>
       <c r="C13" s="6">
         <v>121</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
       <c r="I13" s="6"/>
     </row>
-    <row r="14" spans="2:9">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B14" s="15"/>
       <c r="C14" s="6">
         <v>122</v>
@@ -21016,7 +21444,7 @@
         <v>12</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>17</v>
@@ -21027,7 +21455,7 @@
       <c r="H14" s="7"/>
       <c r="I14" s="6"/>
     </row>
-    <row r="15" spans="2:9">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B15" s="15"/>
       <c r="C15" s="6">
         <v>123</v>
@@ -21036,7 +21464,7 @@
         <v>18</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>17</v>
@@ -21047,7 +21475,7 @@
       <c r="H15" s="7"/>
       <c r="I15" s="6"/>
     </row>
-    <row r="16" spans="2:9">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B16" s="15"/>
       <c r="C16" s="6">
         <v>124</v>
@@ -21056,7 +21484,7 @@
         <v>19</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>17</v>
@@ -21067,7 +21495,7 @@
       <c r="H16" s="7"/>
       <c r="I16" s="6"/>
     </row>
-    <row r="17" spans="2:9">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B17" s="15"/>
       <c r="C17" s="6">
         <v>125</v>
@@ -21076,7 +21504,7 @@
         <v>20</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>17</v>
@@ -21087,7 +21515,7 @@
       <c r="H17" s="7"/>
       <c r="I17" s="6"/>
     </row>
-    <row r="18" spans="2:9">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B18" s="15"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
@@ -21097,7 +21525,7 @@
       <c r="H18" s="7"/>
       <c r="I18" s="6"/>
     </row>
-    <row r="19" spans="2:9">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B19" s="20"/>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
@@ -21107,9 +21535,9 @@
       <c r="H19" s="9"/>
       <c r="I19" s="8"/>
     </row>
-    <row r="20" spans="2:9">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B20" s="15" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C20" s="16">
         <v>300</v>
@@ -21118,14 +21546,14 @@
         <v>4</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F20" s="19"/>
       <c r="G20" s="19"/>
       <c r="H20" s="19"/>
       <c r="I20" s="16"/>
     </row>
-    <row r="21" spans="2:9">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B21" s="15"/>
       <c r="C21" s="6">
         <v>301</v>
@@ -21134,126 +21562,126 @@
         <v>5</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
       <c r="I21" s="6"/>
     </row>
-    <row r="22" spans="2:9">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B22" s="15"/>
       <c r="C22" s="6">
         <v>302</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
       <c r="I22" s="6"/>
     </row>
-    <row r="23" spans="2:9">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B23" s="15"/>
       <c r="C23" s="6">
         <v>320</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
       <c r="I23" s="6"/>
     </row>
-    <row r="24" spans="2:9">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B24" s="15"/>
       <c r="C24" s="6">
         <v>321</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
       <c r="I24" s="6"/>
     </row>
-    <row r="25" spans="2:9">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B25" s="15"/>
       <c r="C25" s="6">
         <v>340</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
       <c r="I25" s="6"/>
     </row>
-    <row r="26" spans="2:9">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B26" s="15"/>
       <c r="C26" s="6">
         <v>341</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
       <c r="I26" s="6"/>
     </row>
-    <row r="27" spans="2:9">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B27" s="15"/>
       <c r="C27" s="6">
         <v>360</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
       <c r="I27" s="6"/>
     </row>
-    <row r="28" spans="2:9">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B28" s="15"/>
       <c r="C28" s="6">
         <v>361</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
       <c r="I28" s="6"/>
     </row>
-    <row r="29" spans="2:9">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B29" s="15"/>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
@@ -21263,7 +21691,7 @@
       <c r="H29" s="7"/>
       <c r="I29" s="6"/>
     </row>
-    <row r="30" spans="2:9">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B30" s="15"/>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
@@ -21273,7 +21701,7 @@
       <c r="H30" s="7"/>
       <c r="I30" s="6"/>
     </row>
-    <row r="31" spans="2:9">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B31" s="20"/>
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
@@ -21283,9 +21711,9 @@
       <c r="H31" s="9"/>
       <c r="I31" s="8"/>
     </row>
-    <row r="32" spans="2:9">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B32" s="15" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C32" s="16">
         <v>500</v>
@@ -21294,14 +21722,14 @@
         <v>6</v>
       </c>
       <c r="E32" s="18" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F32" s="19"/>
       <c r="G32" s="19"/>
       <c r="H32" s="19"/>
       <c r="I32" s="16"/>
     </row>
-    <row r="33" spans="2:9">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B33" s="15"/>
       <c r="C33" s="6">
         <v>501</v>
@@ -21310,14 +21738,14 @@
         <v>7</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c r="H33" s="7"/>
       <c r="I33" s="6"/>
     </row>
-    <row r="34" spans="2:9">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B34" s="15"/>
       <c r="C34" s="6">
         <v>502</v>
@@ -21326,46 +21754,46 @@
         <v>8</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c r="H34" s="7"/>
       <c r="I34" s="6"/>
     </row>
-    <row r="35" spans="2:9">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B35" s="15"/>
       <c r="C35" s="6">
         <v>503</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c r="H35" s="7"/>
       <c r="I35" s="6"/>
     </row>
-    <row r="36" spans="2:9">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B36" s="15"/>
       <c r="C36" s="6">
         <v>504</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c r="H36" s="7"/>
       <c r="I36" s="6"/>
     </row>
-    <row r="37" spans="2:9">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B37" s="15"/>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
@@ -21375,7 +21803,7 @@
       <c r="H37" s="7"/>
       <c r="I37" s="6"/>
     </row>
-    <row r="38" spans="2:9">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B38" s="15"/>
       <c r="C38" s="6">
         <v>520</v>
@@ -21384,7 +21812,7 @@
         <v>9</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>17</v>
@@ -21393,7 +21821,7 @@
       <c r="H38" s="7"/>
       <c r="I38" s="6"/>
     </row>
-    <row r="39" spans="2:9">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B39" s="15"/>
       <c r="C39" s="6">
         <v>521</v>
@@ -21402,7 +21830,7 @@
         <v>10</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F39" s="7" t="s">
         <v>17</v>
@@ -21411,7 +21839,7 @@
       <c r="H39" s="7"/>
       <c r="I39" s="6"/>
     </row>
-    <row r="40" spans="2:9">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B40" s="15"/>
       <c r="C40" s="6">
         <v>522</v>
@@ -21420,7 +21848,7 @@
         <v>25</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F40" s="7" t="s">
         <v>17</v>
@@ -21429,7 +21857,7 @@
       <c r="H40" s="7"/>
       <c r="I40" s="6"/>
     </row>
-    <row r="41" spans="2:9">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B41" s="15"/>
       <c r="C41" s="6">
         <v>523</v>
@@ -21438,7 +21866,7 @@
         <v>26</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F41" s="7" t="s">
         <v>17</v>
@@ -21447,7 +21875,7 @@
       <c r="H41" s="7"/>
       <c r="I41" s="6"/>
     </row>
-    <row r="42" spans="2:9">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B42" s="15"/>
       <c r="C42" s="6">
         <v>524</v>
@@ -21456,7 +21884,7 @@
         <v>27</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F42" s="7" t="s">
         <v>17</v>
@@ -21465,7 +21893,7 @@
       <c r="H42" s="7"/>
       <c r="I42" s="6"/>
     </row>
-    <row r="43" spans="2:9">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B43" s="15"/>
       <c r="C43" s="6">
         <v>525</v>
@@ -21474,7 +21902,7 @@
         <v>28</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F43" s="7" t="s">
         <v>17</v>
@@ -21483,7 +21911,7 @@
       <c r="H43" s="7"/>
       <c r="I43" s="6"/>
     </row>
-    <row r="44" spans="2:9">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B44" s="15"/>
       <c r="C44" s="6">
         <v>526</v>
@@ -21492,7 +21920,7 @@
         <v>29</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F44" s="7" t="s">
         <v>17</v>
@@ -21501,7 +21929,7 @@
       <c r="H44" s="7"/>
       <c r="I44" s="6"/>
     </row>
-    <row r="45" spans="2:9">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B45" s="15"/>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
@@ -21511,7 +21939,7 @@
       <c r="H45" s="7"/>
       <c r="I45" s="6"/>
     </row>
-    <row r="46" spans="2:9" ht="37.5">
+    <row r="46" spans="2:9" ht="37.5" x14ac:dyDescent="0.15">
       <c r="B46" s="15"/>
       <c r="C46" s="6">
         <v>540</v>
@@ -21520,7 +21948,7 @@
         <v>24</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F46" s="7" t="s">
         <v>22</v>
@@ -21531,7 +21959,7 @@
       <c r="H46" s="7"/>
       <c r="I46" s="6"/>
     </row>
-    <row r="47" spans="2:9">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B47" s="15"/>
       <c r="C47" s="6"/>
       <c r="D47" s="6"/>
@@ -21541,7 +21969,7 @@
       <c r="H47" s="7"/>
       <c r="I47" s="6"/>
     </row>
-    <row r="48" spans="2:9">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B48" s="20"/>
       <c r="C48" s="8"/>
       <c r="D48" s="8"/>
@@ -21551,165 +21979,157 @@
       <c r="H48" s="9"/>
       <c r="I48" s="8"/>
     </row>
-    <row r="49" spans="2:9">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B49" s="15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C49" s="16">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="D49" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E49" s="18" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F49" s="19"/>
       <c r="G49" s="19"/>
       <c r="H49" s="19"/>
       <c r="I49" s="16"/>
     </row>
-    <row r="50" spans="2:9">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B50" s="15"/>
       <c r="C50" s="6">
-        <v>601</v>
+        <v>701</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E50" s="11" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c r="H50" s="7"/>
       <c r="I50" s="6"/>
     </row>
-    <row r="51" spans="2:9">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B51" s="15"/>
       <c r="C51" s="6">
-        <v>602</v>
+        <v>702</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E51" s="11" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c r="H51" s="7"/>
       <c r="I51" s="6"/>
     </row>
-    <row r="52" spans="2:9">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B52" s="15"/>
       <c r="C52" s="6">
-        <v>603</v>
+        <v>703</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c r="H52" s="7"/>
       <c r="I52" s="6"/>
     </row>
-    <row r="53" spans="2:9">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B53" s="15"/>
       <c r="C53" s="6">
-        <v>604</v>
+        <v>704</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E53" s="11" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c r="H53" s="7"/>
       <c r="I53" s="6"/>
     </row>
-    <row r="54" spans="2:9">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B54" s="15"/>
       <c r="C54" s="6">
-        <v>620</v>
+        <v>720</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c r="H54" s="7"/>
       <c r="I54" s="6"/>
     </row>
-    <row r="55" spans="2:9">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B55" s="15"/>
       <c r="C55" s="6">
-        <v>621</v>
+        <v>721</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E55" s="11" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c r="H55" s="7"/>
       <c r="I55" s="6"/>
     </row>
-    <row r="56" spans="2:9">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B56" s="15"/>
       <c r="C56" s="6">
-        <v>622</v>
+        <v>722</v>
       </c>
       <c r="D56" s="6" t="s">
         <v>34</v>
       </c>
       <c r="E56" s="11" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F56" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G56" s="7" t="s">
-        <v>35</v>
-      </c>
+      <c r="G56" s="7"/>
       <c r="H56" s="7"/>
-      <c r="I56" s="6" t="s">
-        <v>76</v>
-      </c>
+      <c r="I56" s="6"/>
     </row>
-    <row r="57" spans="2:9">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B57" s="15"/>
       <c r="C57" s="6">
-        <v>623</v>
+        <v>723</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E57" s="11" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F57" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G57" s="7" t="s">
-        <v>35</v>
-      </c>
+      <c r="G57" s="7"/>
       <c r="H57" s="7"/>
-      <c r="I57" s="6" t="s">
-        <v>76</v>
-      </c>
+      <c r="I57" s="6"/>
     </row>
-    <row r="58" spans="2:9">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B58" s="15"/>
       <c r="C58" s="6"/>
       <c r="D58" s="6"/>
@@ -21719,16 +22139,16 @@
       <c r="H58" s="7"/>
       <c r="I58" s="6"/>
     </row>
-    <row r="59" spans="2:9">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B59" s="15"/>
       <c r="C59" s="6">
-        <v>640</v>
+        <v>740</v>
       </c>
       <c r="D59" s="6" t="s">
         <v>30</v>
       </c>
       <c r="E59" s="11" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F59" s="7" t="s">
         <v>17</v>
@@ -21737,112 +22157,96 @@
       <c r="H59" s="7"/>
       <c r="I59" s="6"/>
     </row>
-    <row r="60" spans="2:9">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B60" s="15"/>
       <c r="C60" s="6">
-        <v>641</v>
+        <v>741</v>
       </c>
       <c r="D60" s="6" t="s">
         <v>31</v>
       </c>
       <c r="E60" s="11" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F60" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G60" s="7" t="s">
-        <v>35</v>
-      </c>
+      <c r="G60" s="7"/>
       <c r="H60" s="7"/>
-      <c r="I60" s="6" t="s">
-        <v>76</v>
-      </c>
+      <c r="I60" s="6"/>
     </row>
-    <row r="61" spans="2:9">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B61" s="15"/>
       <c r="C61" s="6">
-        <v>642</v>
+        <v>742</v>
       </c>
       <c r="D61" s="6" t="s">
         <v>32</v>
       </c>
       <c r="E61" s="11" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F61" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G61" s="7" t="s">
-        <v>35</v>
-      </c>
+      <c r="G61" s="7"/>
       <c r="H61" s="7"/>
-      <c r="I61" s="6" t="s">
-        <v>76</v>
-      </c>
+      <c r="I61" s="6"/>
     </row>
-    <row r="62" spans="2:9">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B62" s="15"/>
       <c r="C62" s="6">
-        <v>643</v>
+        <v>743</v>
       </c>
       <c r="D62" s="6" t="s">
         <v>33</v>
       </c>
       <c r="E62" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F62" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G62" s="7" t="s">
-        <v>35</v>
-      </c>
+      <c r="G62" s="7"/>
       <c r="H62" s="7"/>
-      <c r="I62" s="6" t="s">
-        <v>76</v>
-      </c>
+      <c r="I62" s="6"/>
     </row>
-    <row r="63" spans="2:9">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B63" s="15"/>
-      <c r="C63" s="6"/>
-      <c r="D63" s="6"/>
+      <c r="C63" s="6">
+        <v>744</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>189</v>
+      </c>
       <c r="E63" s="11"/>
-      <c r="F63" s="7"/>
+      <c r="F63" s="7" t="s">
+        <v>190</v>
+      </c>
       <c r="G63" s="7"/>
       <c r="H63" s="7"/>
       <c r="I63" s="6"/>
     </row>
-    <row r="64" spans="2:9">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B64" s="15"/>
-      <c r="C64" s="6">
-        <v>660</v>
-      </c>
-      <c r="D64" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E64" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="F64" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G64" s="7" t="s">
-        <v>22</v>
-      </c>
+      <c r="C64" s="6"/>
+      <c r="D64" s="6"/>
+      <c r="E64" s="11"/>
+      <c r="F64" s="7"/>
+      <c r="G64" s="7"/>
       <c r="H64" s="7"/>
       <c r="I64" s="6"/>
     </row>
-    <row r="65" spans="2:9">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B65" s="15"/>
       <c r="C65" s="6">
-        <v>661</v>
+        <v>760</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E65" s="11" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F65" s="7" t="s">
         <v>22</v>
@@ -21853,96 +22257,98 @@
       <c r="H65" s="7"/>
       <c r="I65" s="6"/>
     </row>
-    <row r="66" spans="2:9">
-      <c r="B66" s="20"/>
-      <c r="C66" s="8"/>
-      <c r="D66" s="8"/>
-      <c r="E66" s="12"/>
-      <c r="F66" s="9"/>
-      <c r="G66" s="9"/>
-      <c r="H66" s="9"/>
-      <c r="I66" s="8"/>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B66" s="15"/>
+      <c r="C66" s="6">
+        <v>761</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E66" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="F66" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G66" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H66" s="7"/>
+      <c r="I66" s="6"/>
     </row>
-    <row r="67" spans="2:9" ht="37.5">
-      <c r="B67" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="C67" s="16">
-        <v>800</v>
-      </c>
-      <c r="D67" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="E67" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="F67" s="19"/>
-      <c r="G67" s="19"/>
-      <c r="H67" s="19"/>
-      <c r="I67" s="16"/>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B67" s="20"/>
+      <c r="C67" s="8"/>
+      <c r="D67" s="8"/>
+      <c r="E67" s="12"/>
+      <c r="F67" s="9"/>
+      <c r="G67" s="9"/>
+      <c r="H67" s="9"/>
+      <c r="I67" s="8"/>
     </row>
-    <row r="68" spans="2:9" ht="37.5">
-      <c r="B68" s="15"/>
-      <c r="C68" s="6">
-        <v>801</v>
-      </c>
-      <c r="D68" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="E68" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="F68" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G68" s="7"/>
-      <c r="H68" s="7"/>
-      <c r="I68" s="6"/>
+    <row r="68" spans="2:9" ht="37.5" x14ac:dyDescent="0.15">
+      <c r="B68" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C68" s="16">
+        <v>900</v>
+      </c>
+      <c r="D68" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="E68" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="F68" s="19"/>
+      <c r="G68" s="19"/>
+      <c r="H68" s="19"/>
+      <c r="I68" s="16"/>
     </row>
-    <row r="69" spans="2:9" ht="37.5">
+    <row r="69" spans="2:9" ht="37.5" x14ac:dyDescent="0.15">
       <c r="B69" s="15"/>
       <c r="C69" s="6">
-        <v>820</v>
+        <v>901</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="E69" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="F69" s="7"/>
+        <v>97</v>
+      </c>
+      <c r="F69" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="G69" s="7"/>
       <c r="H69" s="7"/>
       <c r="I69" s="6"/>
     </row>
-    <row r="70" spans="2:9">
+    <row r="70" spans="2:9" ht="37.5" x14ac:dyDescent="0.15">
       <c r="B70" s="15"/>
       <c r="C70" s="6">
-        <v>821</v>
+        <v>920</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E70" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="F70" s="7" t="s">
-        <v>17</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="F70" s="7"/>
       <c r="G70" s="7"/>
       <c r="H70" s="7"/>
       <c r="I70" s="6"/>
     </row>
-    <row r="71" spans="2:9">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B71" s="15"/>
       <c r="C71" s="6">
-        <v>822</v>
+        <v>921</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="E71" s="11" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F71" s="7" t="s">
         <v>17</v>
@@ -21951,44 +22357,44 @@
       <c r="H71" s="7"/>
       <c r="I71" s="6"/>
     </row>
-    <row r="72" spans="2:9">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B72" s="15"/>
-      <c r="C72" s="6"/>
-      <c r="D72" s="6"/>
-      <c r="E72" s="11"/>
-      <c r="F72" s="7"/>
+      <c r="C72" s="6">
+        <v>922</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E72" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="F72" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="G72" s="7"/>
       <c r="H72" s="7"/>
       <c r="I72" s="6"/>
     </row>
-    <row r="73" spans="2:9" ht="56.25">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B73" s="15"/>
-      <c r="C73" s="6">
-        <v>840</v>
-      </c>
-      <c r="D73" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E73" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="F73" s="7" t="s">
-        <v>17</v>
-      </c>
+      <c r="C73" s="6"/>
+      <c r="D73" s="6"/>
+      <c r="E73" s="11"/>
+      <c r="F73" s="7"/>
       <c r="G73" s="7"/>
       <c r="H73" s="7"/>
       <c r="I73" s="6"/>
     </row>
-    <row r="74" spans="2:9">
+    <row r="74" spans="2:9" ht="56.25" x14ac:dyDescent="0.15">
       <c r="B74" s="15"/>
       <c r="C74" s="6">
-        <v>841</v>
+        <v>940</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="E74" s="11" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F74" s="7" t="s">
         <v>17</v>
@@ -21997,16 +22403,16 @@
       <c r="H74" s="7"/>
       <c r="I74" s="6"/>
     </row>
-    <row r="75" spans="2:9">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B75" s="15"/>
       <c r="C75" s="6">
-        <v>842</v>
+        <v>941</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E75" s="11" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="F75" s="7" t="s">
         <v>17</v>
@@ -22015,16 +22421,16 @@
       <c r="H75" s="7"/>
       <c r="I75" s="6"/>
     </row>
-    <row r="76" spans="2:9">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B76" s="15"/>
       <c r="C76" s="6">
-        <v>843</v>
+        <v>942</v>
       </c>
       <c r="D76" s="6" t="s">
         <v>111</v>
       </c>
       <c r="E76" s="11" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="F76" s="7" t="s">
         <v>17</v>
@@ -22033,16 +22439,16 @@
       <c r="H76" s="7"/>
       <c r="I76" s="6"/>
     </row>
-    <row r="77" spans="2:9">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B77" s="15"/>
       <c r="C77" s="6">
-        <v>844</v>
+        <v>943</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E77" s="11" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F77" s="7" t="s">
         <v>17</v>
@@ -22051,16 +22457,16 @@
       <c r="H77" s="7"/>
       <c r="I77" s="6"/>
     </row>
-    <row r="78" spans="2:9">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B78" s="15"/>
       <c r="C78" s="6">
-        <v>845</v>
+        <v>944</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E78" s="11" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F78" s="7" t="s">
         <v>17</v>
@@ -22069,16 +22475,16 @@
       <c r="H78" s="7"/>
       <c r="I78" s="6"/>
     </row>
-    <row r="79" spans="2:9">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B79" s="15"/>
       <c r="C79" s="6">
-        <v>846</v>
+        <v>945</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="E79" s="11" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F79" s="7" t="s">
         <v>17</v>
@@ -22087,16 +22493,16 @@
       <c r="H79" s="7"/>
       <c r="I79" s="6"/>
     </row>
-    <row r="80" spans="2:9">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B80" s="15"/>
       <c r="C80" s="6">
-        <v>847</v>
+        <v>946</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="E80" s="11" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F80" s="7" t="s">
         <v>17</v>
@@ -22105,16 +22511,16 @@
       <c r="H80" s="7"/>
       <c r="I80" s="6"/>
     </row>
-    <row r="81" spans="2:9">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B81" s="15"/>
       <c r="C81" s="6">
-        <v>848</v>
+        <v>947</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="E81" s="11" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F81" s="7" t="s">
         <v>17</v>
@@ -22123,16 +22529,16 @@
       <c r="H81" s="7"/>
       <c r="I81" s="6"/>
     </row>
-    <row r="82" spans="2:9">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B82" s="15"/>
       <c r="C82" s="6">
-        <v>849</v>
+        <v>948</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E82" s="11" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F82" s="7" t="s">
         <v>17</v>
@@ -22141,44 +22547,44 @@
       <c r="H82" s="7"/>
       <c r="I82" s="6"/>
     </row>
-    <row r="83" spans="2:9">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B83" s="15"/>
-      <c r="C83" s="6"/>
-      <c r="D83" s="6"/>
-      <c r="E83" s="11"/>
-      <c r="F83" s="7"/>
+      <c r="C83" s="6">
+        <v>949</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="E83" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="F83" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="G83" s="7"/>
       <c r="H83" s="7"/>
       <c r="I83" s="6"/>
     </row>
-    <row r="84" spans="2:9">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B84" s="15"/>
-      <c r="C84" s="6">
-        <v>860</v>
-      </c>
-      <c r="D84" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="E84" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="F84" s="7" t="s">
-        <v>17</v>
-      </c>
+      <c r="C84" s="6"/>
+      <c r="D84" s="6"/>
+      <c r="E84" s="11"/>
+      <c r="F84" s="7"/>
       <c r="G84" s="7"/>
       <c r="H84" s="7"/>
       <c r="I84" s="6"/>
     </row>
-    <row r="85" spans="2:9">
+    <row r="85" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B85" s="15"/>
       <c r="C85" s="6">
-        <v>861</v>
+        <v>960</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E85" s="11" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F85" s="7" t="s">
         <v>17</v>
@@ -22187,16 +22593,16 @@
       <c r="H85" s="7"/>
       <c r="I85" s="6"/>
     </row>
-    <row r="86" spans="2:9">
+    <row r="86" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B86" s="15"/>
       <c r="C86" s="6">
-        <v>862</v>
+        <v>961</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E86" s="11" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F86" s="7" t="s">
         <v>17</v>
@@ -22205,16 +22611,16 @@
       <c r="H86" s="7"/>
       <c r="I86" s="6"/>
     </row>
-    <row r="87" spans="2:9">
+    <row r="87" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B87" s="15"/>
       <c r="C87" s="6">
-        <v>863</v>
+        <v>962</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E87" s="11" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F87" s="7" t="s">
         <v>17</v>
@@ -22223,16 +22629,16 @@
       <c r="H87" s="7"/>
       <c r="I87" s="6"/>
     </row>
-    <row r="88" spans="2:9">
+    <row r="88" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B88" s="15"/>
       <c r="C88" s="6">
-        <v>864</v>
+        <v>963</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E88" s="11" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F88" s="7" t="s">
         <v>17</v>
@@ -22241,16 +22647,16 @@
       <c r="H88" s="7"/>
       <c r="I88" s="6"/>
     </row>
-    <row r="89" spans="2:9">
+    <row r="89" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B89" s="15"/>
       <c r="C89" s="6">
-        <v>865</v>
+        <v>964</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E89" s="11" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F89" s="7" t="s">
         <v>17</v>
@@ -22259,16 +22665,16 @@
       <c r="H89" s="7"/>
       <c r="I89" s="6"/>
     </row>
-    <row r="90" spans="2:9">
+    <row r="90" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B90" s="15"/>
       <c r="C90" s="6">
-        <v>866</v>
+        <v>965</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E90" s="11" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F90" s="7" t="s">
         <v>17</v>
@@ -22277,16 +22683,16 @@
       <c r="H90" s="7"/>
       <c r="I90" s="6"/>
     </row>
-    <row r="91" spans="2:9" ht="37.5">
+    <row r="91" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B91" s="15"/>
       <c r="C91" s="6">
-        <v>867</v>
+        <v>966</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E91" s="11" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F91" s="7" t="s">
         <v>17</v>
@@ -22295,39 +22701,39 @@
       <c r="H91" s="7"/>
       <c r="I91" s="6"/>
     </row>
-    <row r="92" spans="2:9">
+    <row r="92" spans="2:9" ht="37.5" x14ac:dyDescent="0.15">
       <c r="B92" s="15"/>
-      <c r="C92" s="6"/>
-      <c r="D92" s="6"/>
-      <c r="E92" s="11"/>
-      <c r="F92" s="7"/>
+      <c r="C92" s="6">
+        <v>967</v>
+      </c>
+      <c r="D92" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="E92" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="F92" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="G92" s="7"/>
       <c r="H92" s="7"/>
       <c r="I92" s="6"/>
     </row>
-    <row r="93" spans="2:9">
+    <row r="93" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B93" s="15"/>
       <c r="C93" s="6"/>
       <c r="D93" s="6"/>
       <c r="E93" s="11"/>
-      <c r="F93" s="7" t="s">
-        <v>17</v>
-      </c>
+      <c r="F93" s="7"/>
       <c r="G93" s="7"/>
       <c r="H93" s="7"/>
       <c r="I93" s="6"/>
     </row>
-    <row r="94" spans="2:9">
+    <row r="94" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B94" s="15"/>
-      <c r="C94" s="6">
-        <v>880</v>
-      </c>
-      <c r="D94" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E94" s="11" t="s">
-        <v>180</v>
-      </c>
+      <c r="C94" s="6"/>
+      <c r="D94" s="6"/>
+      <c r="E94" s="11"/>
       <c r="F94" s="7" t="s">
         <v>17</v>
       </c>
@@ -22335,16 +22741,16 @@
       <c r="H94" s="7"/>
       <c r="I94" s="6"/>
     </row>
-    <row r="95" spans="2:9">
+    <row r="95" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B95" s="15"/>
       <c r="C95" s="6">
-        <v>881</v>
+        <v>980</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E95" s="11" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F95" s="7" t="s">
         <v>17</v>
@@ -22353,16 +22759,16 @@
       <c r="H95" s="7"/>
       <c r="I95" s="6"/>
     </row>
-    <row r="96" spans="2:9">
+    <row r="96" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B96" s="15"/>
       <c r="C96" s="6">
-        <v>882</v>
+        <v>981</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E96" s="11" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F96" s="7" t="s">
         <v>17</v>
@@ -22371,16 +22777,16 @@
       <c r="H96" s="7"/>
       <c r="I96" s="6"/>
     </row>
-    <row r="97" spans="2:9">
+    <row r="97" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B97" s="15"/>
       <c r="C97" s="6">
-        <v>883</v>
+        <v>982</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E97" s="11" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F97" s="7" t="s">
         <v>17</v>
@@ -22389,16 +22795,16 @@
       <c r="H97" s="7"/>
       <c r="I97" s="6"/>
     </row>
-    <row r="98" spans="2:9">
+    <row r="98" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B98" s="15"/>
       <c r="C98" s="6">
-        <v>884</v>
+        <v>983</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E98" s="11" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="F98" s="7" t="s">
         <v>17</v>
@@ -22407,16 +22813,16 @@
       <c r="H98" s="7"/>
       <c r="I98" s="6"/>
     </row>
-    <row r="99" spans="2:9">
+    <row r="99" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B99" s="15"/>
       <c r="C99" s="6">
-        <v>885</v>
+        <v>984</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E99" s="11" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F99" s="7" t="s">
         <v>17</v>
@@ -22425,16 +22831,16 @@
       <c r="H99" s="7"/>
       <c r="I99" s="6"/>
     </row>
-    <row r="100" spans="2:9">
+    <row r="100" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B100" s="15"/>
       <c r="C100" s="6">
-        <v>886</v>
+        <v>985</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E100" s="11" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F100" s="7" t="s">
         <v>17</v>
@@ -22443,16 +22849,16 @@
       <c r="H100" s="7"/>
       <c r="I100" s="6"/>
     </row>
-    <row r="101" spans="2:9">
+    <row r="101" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B101" s="15"/>
       <c r="C101" s="6">
-        <v>887</v>
+        <v>986</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E101" s="11" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F101" s="7" t="s">
         <v>17</v>
@@ -22461,16 +22867,16 @@
       <c r="H101" s="7"/>
       <c r="I101" s="6"/>
     </row>
-    <row r="102" spans="2:9">
+    <row r="102" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B102" s="15"/>
       <c r="C102" s="6">
-        <v>888</v>
+        <v>987</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>104</v>
+        <v>44</v>
       </c>
       <c r="E102" s="11" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F102" s="7" t="s">
         <v>17</v>
@@ -22479,16 +22885,16 @@
       <c r="H102" s="7"/>
       <c r="I102" s="6"/>
     </row>
-    <row r="103" spans="2:9">
+    <row r="103" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B103" s="15"/>
       <c r="C103" s="6">
-        <v>889</v>
+        <v>988</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>46</v>
+        <v>102</v>
       </c>
       <c r="E103" s="11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F103" s="7" t="s">
         <v>17</v>
@@ -22497,16 +22903,16 @@
       <c r="H103" s="7"/>
       <c r="I103" s="6"/>
     </row>
-    <row r="104" spans="2:9">
+    <row r="104" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B104" s="15"/>
       <c r="C104" s="6">
-        <v>890</v>
+        <v>989</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E104" s="11" t="s">
-        <v>105</v>
+        <v>187</v>
       </c>
       <c r="F104" s="7" t="s">
         <v>17</v>
@@ -22515,16 +22921,16 @@
       <c r="H104" s="7"/>
       <c r="I104" s="6"/>
     </row>
-    <row r="105" spans="2:9">
+    <row r="105" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B105" s="15"/>
       <c r="C105" s="6">
-        <v>891</v>
+        <v>990</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E105" s="11" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F105" s="7" t="s">
         <v>17</v>
@@ -22533,81 +22939,99 @@
       <c r="H105" s="7"/>
       <c r="I105" s="6"/>
     </row>
-    <row r="106" spans="2:9">
+    <row r="106" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B106" s="15"/>
-      <c r="C106" s="6"/>
-      <c r="D106" s="6"/>
-      <c r="E106" s="11"/>
-      <c r="F106" s="7"/>
+      <c r="C106" s="6">
+        <v>991</v>
+      </c>
+      <c r="D106" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E106" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="F106" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="G106" s="7"/>
       <c r="H106" s="7"/>
       <c r="I106" s="6"/>
     </row>
-    <row r="107" spans="2:9">
+    <row r="107" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B107" s="15"/>
-      <c r="C107" s="6">
-        <v>900</v>
-      </c>
-      <c r="D107" s="6" t="s">
-        <v>49</v>
-      </c>
+      <c r="C107" s="6"/>
+      <c r="D107" s="6"/>
       <c r="E107" s="11"/>
-      <c r="F107" s="7" t="s">
-        <v>17</v>
-      </c>
+      <c r="F107" s="7"/>
       <c r="G107" s="7"/>
       <c r="H107" s="7"/>
       <c r="I107" s="6"/>
     </row>
-    <row r="108" spans="2:9">
-      <c r="B108" s="20"/>
-      <c r="C108" s="8"/>
-      <c r="D108" s="8"/>
-      <c r="E108" s="12"/>
-      <c r="F108" s="9"/>
-      <c r="G108" s="9"/>
-      <c r="H108" s="9"/>
-      <c r="I108" s="8"/>
+    <row r="108" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B108" s="15"/>
+      <c r="C108" s="6">
+        <v>1000</v>
+      </c>
+      <c r="D108" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E108" s="11"/>
+      <c r="F108" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G108" s="7"/>
+      <c r="H108" s="7"/>
+      <c r="I108" s="6"/>
     </row>
-    <row r="109" spans="2:9">
-      <c r="B109" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="C109" s="16">
-        <v>1000</v>
-      </c>
-      <c r="D109" s="16" t="s">
+    <row r="109" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B109" s="20"/>
+      <c r="C109" s="8"/>
+      <c r="D109" s="8"/>
+      <c r="E109" s="12"/>
+      <c r="F109" s="9"/>
+      <c r="G109" s="9"/>
+      <c r="H109" s="9"/>
+      <c r="I109" s="8"/>
+    </row>
+    <row r="110" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B110" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="C110" s="16">
+        <v>1100</v>
+      </c>
+      <c r="D110" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E109" s="18"/>
-      <c r="F109" s="19" t="s">
+      <c r="E110" s="18"/>
+      <c r="F110" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="G109" s="19" t="s">
+      <c r="G110" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="H109" s="19"/>
-      <c r="I109" s="16"/>
+      <c r="H110" s="19"/>
+      <c r="I110" s="16"/>
     </row>
-    <row r="110" spans="2:9">
-      <c r="B110" s="15"/>
-      <c r="C110" s="6"/>
-      <c r="D110" s="6"/>
-      <c r="E110" s="11"/>
-      <c r="F110" s="7"/>
-      <c r="G110" s="7"/>
-      <c r="H110" s="7"/>
-      <c r="I110" s="6"/>
+    <row r="111" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B111" s="15"/>
+      <c r="C111" s="6"/>
+      <c r="D111" s="6"/>
+      <c r="E111" s="11"/>
+      <c r="F111" s="7"/>
+      <c r="G111" s="7"/>
+      <c r="H111" s="7"/>
+      <c r="I111" s="6"/>
     </row>
-    <row r="111" spans="2:9">
-      <c r="B111" s="20"/>
-      <c r="C111" s="8"/>
-      <c r="D111" s="8"/>
-      <c r="E111" s="12"/>
-      <c r="F111" s="9"/>
-      <c r="G111" s="9"/>
-      <c r="H111" s="9"/>
-      <c r="I111" s="8"/>
+    <row r="112" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B112" s="20"/>
+      <c r="C112" s="8"/>
+      <c r="D112" s="8"/>
+      <c r="E112" s="12"/>
+      <c r="F112" s="9"/>
+      <c r="G112" s="9"/>
+      <c r="H112" s="9"/>
+      <c r="I112" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -22621,14 +23045,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D78" sqref="D78"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J66" sqref="J66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -22638,14 +23062,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A49" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView showGridLines="0" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q53" sqref="Q53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -22655,14 +23079,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -22672,14 +23096,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -22689,14 +23113,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -22706,14 +23130,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -22723,14 +23147,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
